--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
@@ -528,52 +528,52 @@
         <v>23</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1823923333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.547177</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.1192916666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.357875</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>0.3052461013194445</v>
+        <v>0.5624207432455556</v>
       </c>
       <c r="R2">
-        <v>2.747214911875</v>
+        <v>5.06178668921</v>
       </c>
       <c r="S2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="T2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H3">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>0.7699065875277777</v>
+        <v>1.177157322650889</v>
       </c>
       <c r="R3">
-        <v>6.929159287749999</v>
+        <v>10.594415903858</v>
       </c>
       <c r="S3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="T3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1192916666666667</v>
+        <v>0.1823923333333334</v>
       </c>
       <c r="H4">
-        <v>0.357875</v>
+        <v>0.547177</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>0.3401671461805555</v>
+        <v>0.7353104968096669</v>
       </c>
       <c r="R4">
-        <v>3.061504315625</v>
+        <v>6.617794471287001</v>
       </c>
       <c r="S4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="T4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
     </row>
   </sheetData>
